--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AS22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,109 +526,109 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_HT</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_HT</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_FT</t>
@@ -647,6 +647,16 @@
       <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
         </is>
       </c>
     </row>
@@ -682,104 +692,110 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="K2" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="P2" t="n">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>2.45</v>
       </c>
       <c r="U2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK2" t="n">
         <v>11</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AL2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM2" t="n">
         <v>22</v>
       </c>
-      <c r="W2" t="n">
-        <v>12</v>
-      </c>
-      <c r="X2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -813,22 +829,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L3" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M3" t="n">
         <v>1.3</v>
@@ -837,7 +853,7 @@
         <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P3" t="n">
         <v>1.72</v>
@@ -849,72 +865,74 @@
         <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>2.65</v>
       </c>
       <c r="U3" t="n">
-        <v>6.4</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X3" t="n">
         <v>9.25</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>7.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
         <v>9</v>
       </c>
-      <c r="AB3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>5.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.25</v>
+        <v>45</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.43</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.65</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -948,108 +966,110 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="L4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N4" t="n">
         <v>3</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O4" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>2.37</v>
       </c>
       <c r="U4" t="n">
-        <v>6.4</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>1.88</v>
       </c>
       <c r="W4" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>8.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.6</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.9</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>80</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>101</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.8</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.6</v>
+        <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>9.75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>8.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.49</v>
+        <v>17.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.45</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1089,22 +1109,22 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.8</v>
@@ -1113,82 +1133,84 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
         <v>12</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
         <v>17</v>
       </c>
-      <c r="W5" t="n">
-        <v>12</v>
-      </c>
-      <c r="X5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AM5" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>1.04</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1222,104 +1244,106 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.05</v>
-      </c>
+        <v>1.32</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="n">
         <v>18</v>
       </c>
-      <c r="Z6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AB6" t="n">
-        <v>6.5</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>6.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>350</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="AH6" t="n">
         <v>10.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>30</v>
+      </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1353,108 +1377,110 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="O7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.55</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U7" t="n">
-        <v>8.75</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE7" t="n">
         <v>13.5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AF7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI7" t="n">
         <v>9.75</v>
       </c>
-      <c r="X7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.39</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.55</v>
+        <v>25</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1487,43 +1513,111 @@
           <t>Jelgava</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1556,58 +1650,118 @@
           <t>Super Nova</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.75</v>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>100</v>
+      </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dC3qvlv2</t>
+          <t>xOQS6wE5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>06/03/2025</t>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1617,118 +1771,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>4.45</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>2.18</v>
       </c>
       <c r="K10" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="L10" t="n">
-        <v>2.72</v>
+        <v>4.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.07</v>
+        <v>2.55</v>
       </c>
       <c r="U10" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>17</v>
+        <v>1.93</v>
       </c>
       <c r="W10" t="n">
-        <v>10.75</v>
+        <v>7.7</v>
       </c>
       <c r="X10" t="n">
-        <v>40</v>
+        <v>8.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>25</v>
+        <v>8.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>50</v>
+        <v>7.7</v>
       </c>
       <c r="AE10" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>450</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.75</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>40</v>
+      </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2sSRfh3m</t>
+          <t>dC3qvlv2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1738,136 +1898,130 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="M11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.75</v>
       </c>
       <c r="P11" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="Q11" t="n">
         <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.2</v>
-      </c>
+        <v>1.34</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>13</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>19</v>
+        <v>10.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AD11" t="n">
-        <v>41</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>151</v>
+        <v>12.5</v>
       </c>
       <c r="AF11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI11" t="n">
         <v>11</v>
       </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK11" t="n">
         <v>21</v>
       </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
       <c r="AL11" t="n">
-        <v>1.33</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2LvLb14L</t>
+          <t>2sSRfh3m</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1887,19 +2041,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
         <v>2.35</v>
@@ -1920,97 +2074,95 @@
         <v>4.33</v>
       </c>
       <c r="O12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W12" t="n">
         <v>12</v>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
         <v>15</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>11</v>
-      </c>
-      <c r="X12" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>21</v>
       </c>
       <c r="Z12" t="n">
         <v>26</v>
       </c>
       <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
         <v>15</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AD12" t="n">
         <v>7</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AE12" t="n">
         <v>12</v>
       </c>
-      <c r="AD12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
         <v>126</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AH12" t="n">
         <v>11</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>13</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>10</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.33</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.25</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.8</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UgJriA2C</t>
+          <t>2LvLb14L</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2020,7 +2172,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2030,126 +2182,132 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
         <v>2.75</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="O13" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.27</v>
       </c>
       <c r="T13" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>2.38</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
         <v>17</v>
       </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AM13" t="n">
-        <v>2.75</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tYELrV54</t>
+          <t>UgJriA2C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2159,136 +2317,138 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
         <v>3.4</v>
       </c>
-      <c r="I14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V14" t="n">
         <v>2</v>
       </c>
-      <c r="T14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
         <v>6.5</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO14" t="n">
         <v>8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AD6xum5T</t>
+          <t>tYELrV54</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2298,7 +2458,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2308,56 +2468,132 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8</v>
+      </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MizecUKc</t>
+          <t>AD6xum5T</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2377,126 +2613,58 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
-      </c>
-      <c r="U16" t="n">
-        <v>8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dY6jn4Cd</t>
+          <t>MizecUKc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2506,7 +2674,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2516,126 +2684,128 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.95</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="Q17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.33</v>
       </c>
-      <c r="N17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
         <v>11</v>
       </c>
-      <c r="V17" t="n">
-        <v>19</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>13</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AK17" t="n">
         <v>41</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
         <v>34</v>
       </c>
-      <c r="Z17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>2.63</v>
-      </c>
       <c r="AN17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QF9LIrfo</t>
+          <t>dY6jn4Cd</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2645,132 +2815,138 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
-        <v>4.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>7.1</v>
+        <v>1.95</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="K18" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>2.63</v>
       </c>
       <c r="M18" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>1.55</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>5.8</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>5.8</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.75</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>150</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.39</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>9</v>
+      </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>z7hFMCCG</t>
+          <t>QF9LIrfo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2790,122 +2966,124 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Ch. Odesa</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>1.36</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.27</v>
+        <v>8.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>1.9</v>
       </c>
       <c r="K19" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="N19" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>2.42</v>
       </c>
       <c r="U19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z19" t="n">
         <v>7.8</v>
       </c>
-      <c r="V19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB19" t="n">
         <v>45</v>
       </c>
-      <c r="Y19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AC19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH19" t="n">
         <v>16</v>
       </c>
-      <c r="AD19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.52</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.22</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QiRYRnXb</t>
+          <t>z7hFMCCG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2915,7 +3093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2925,122 +3103,128 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dyn. Kyiv</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.8</v>
+        <v>3.05</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.33</v>
+        <v>2.4</v>
       </c>
       <c r="J20" t="n">
-        <v>6.9</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>2.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>2.35</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="S20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.98</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>1.65</v>
       </c>
-      <c r="U20" t="n">
-        <v>20</v>
-      </c>
-      <c r="V20" t="n">
-        <v>55</v>
-      </c>
       <c r="W20" t="n">
-        <v>25</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>200</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>100</v>
+        <v>11.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>9.75</v>
       </c>
-      <c r="AC20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.29</v>
+        <v>24</v>
       </c>
       <c r="AM20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>6</v>
+      </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YHUtQQ1B</t>
+          <t>QiRYRnXb</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3050,7 +3234,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3060,117 +3244,256 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Dyn. Kyiv</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>7.8</v>
+        <v>1.44</v>
       </c>
       <c r="J21" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>1.98</v>
       </c>
       <c r="M21" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
         <v>1.65</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.98</v>
-      </c>
       <c r="Q21" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
-        <v>2.02</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>2.42</v>
       </c>
       <c r="U21" t="n">
-        <v>6.7</v>
+        <v>2.25</v>
       </c>
       <c r="V21" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>8.75</v>
       </c>
-      <c r="X21" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>100</v>
-      </c>
       <c r="AK21" t="n">
-        <v>90</v>
+        <v>8.75</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.3</v>
+        <v>14</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.25</v>
+        <v>40</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>YHUtQQ1B</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS22"/>
+  <dimension ref="A1:AS21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,19 +731,19 @@
         <v>1.38</v>
       </c>
       <c r="T2" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>11.75</v>
@@ -770,7 +770,7 @@
         <v>60</v>
       </c>
       <c r="AG2" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH2" t="n">
         <v>5.7</v>
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.34</v>
@@ -1005,7 +1005,7 @@
         <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="U4" t="n">
         <v>1.82</v>
@@ -1026,19 +1026,19 @@
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1050,16 +1050,16 @@
         <v>6.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
@@ -1127,10 +1127,10 @@
         <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
@@ -1139,7 +1139,7 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
@@ -1202,10 +1202,10 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1259,84 +1259,88 @@
         <v>2.07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+        <v>1.26</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.55</v>
+      </c>
       <c r="U6" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK6" t="n">
         <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1380,19 +1384,19 @@
         <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.25</v>
@@ -1404,7 +1408,7 @@
         <v>1.75</v>
       </c>
       <c r="P7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
         <v>2.75</v>
@@ -1428,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11.75</v>
@@ -1443,22 +1447,22 @@
         <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
         <v>60</v>
       </c>
       <c r="AG7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>9.75</v>
@@ -1685,10 +1689,10 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -1751,17 +1755,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>xOQS6wE5</t>
+          <t>dC3qvlv2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05/03/2025</t>
+          <t>06/03/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1771,112 +1775,108 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.45</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
-        <v>2.18</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.6</v>
+        <v>2.77</v>
       </c>
       <c r="M10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.55</v>
-      </c>
+        <v>1.34</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>7.7</v>
+        <v>10.75</v>
       </c>
       <c r="X10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH10" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>14</v>
-      </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK10" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
@@ -1888,7 +1888,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dC3qvlv2</t>
+          <t>2sSRfh3m</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1898,109 +1898,113 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tepatitlan de Morelos</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="O11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+        <v>1.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2009,10 +2013,14 @@
         <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
@@ -2021,7 +2029,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2sSRfh3m</t>
+          <t>2LvLb14L</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2041,31 +2049,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L12" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.88</v>
       </c>
       <c r="M12" t="n">
         <v>1.2</v>
@@ -2074,46 +2082,46 @@
         <v>4.33</v>
       </c>
       <c r="O12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
@@ -2125,25 +2133,25 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>11</v>
       </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
         <v>23</v>
@@ -2154,15 +2162,19 @@
       <c r="AO12" t="n">
         <v>15</v>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1.78</v>
+      </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2LvLb14L</t>
+          <t>UgJriA2C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2172,7 +2184,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2182,132 +2194,128 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
         <v>3.4</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.75</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>11</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AK13" t="n">
         <v>29</v>
       </c>
-      <c r="AA13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
         <v>34</v>
       </c>
-      <c r="AG13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
       <c r="AN13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1.78</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UgJriA2C</t>
+          <t>tYELrV54</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2317,138 +2325,142 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="O14" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AH14" t="n">
         <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+      <c r="AR14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tYELrV54</t>
+          <t>AD6xum5T</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2458,7 +2470,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2468,132 +2480,58 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8</v>
-      </c>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AD6xum5T</t>
+          <t>MizecUKc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2613,49 +2551,119 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11</v>
+      </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
@@ -2664,7 +2672,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MizecUKc</t>
+          <t>dY6jn4Cd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2674,7 +2682,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2684,118 +2692,118 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="M17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.25</v>
       </c>
-      <c r="N17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8</v>
       </c>
-      <c r="X17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
         <v>17</v>
       </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
       <c r="AL17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM17" t="n">
         <v>29</v>
       </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
       <c r="AN17" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2805,7 +2813,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dY6jn4Cd</t>
+          <t>QF9LIrfo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2815,129 +2823,125 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Ch. Odesa</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>1.36</v>
       </c>
       <c r="H18" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3.3</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.75</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>5.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="Z18" t="n">
-        <v>41</v>
+        <v>7.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD18" t="n">
         <v>9</v>
       </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>9</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
@@ -2946,7 +2950,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QF9LIrfo</t>
+          <t>z7hFMCCG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2966,115 +2970,119 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.36</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>4.25</v>
+        <v>2.87</v>
       </c>
       <c r="I19" t="n">
-        <v>8.25</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="N19" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="P19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.65</v>
       </c>
-      <c r="Q19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="X19" t="n">
-        <v>5.2</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.8</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AG19" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>6.3</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>6</v>
+      </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
@@ -3083,7 +3091,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>z7hFMCCG</t>
+          <t>QiRYRnXb</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3093,7 +3101,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3103,119 +3111,115 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Dyn. Kyiv</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>1.44</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>7.3</v>
       </c>
       <c r="K20" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="M20" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="P20" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>2.47</v>
       </c>
       <c r="V20" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>13.5</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.25</v>
+        <v>27</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AB20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM20" t="n">
         <v>50</v>
       </c>
-      <c r="AC20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>6</v>
-      </c>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
@@ -3224,7 +3228,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>QiRYRnXb</t>
+          <t>YHUtQQ1B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3234,7 +3238,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3244,112 +3248,112 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dyn. Kyiv</t>
+          <t>Kryvbas</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.44</v>
       </c>
-      <c r="J21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W21" t="n">
-        <v>14.5</v>
+        <v>5.1</v>
       </c>
       <c r="X21" t="n">
-        <v>40</v>
+        <v>5.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>9.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>175</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="n">
         <v>8.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>350</v>
+      </c>
+      <c r="AL21" t="n">
         <v>175</v>
       </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>14</v>
-      </c>
       <c r="AM21" t="n">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
@@ -3358,143 +3362,6 @@
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>YHUtQQ1B</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>06/03/2025</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kryvbas</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -728,10 +728,10 @@
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T2" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U2" t="n">
         <v>1.88</v>
@@ -743,7 +743,7 @@
         <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11.75</v>
@@ -764,13 +764,13 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>60</v>
       </c>
       <c r="AG2" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH2" t="n">
         <v>5.7</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
         <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -853,7 +853,7 @@
         <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P3" t="n">
         <v>1.72</v>
@@ -877,16 +877,16 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>7.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
         <v>14.5</v>
@@ -901,7 +901,7 @@
         <v>5.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF3" t="n">
         <v>45</v>
@@ -910,7 +910,7 @@
         <v>300</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1103,58 +1103,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="O5" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
@@ -1169,13 +1169,13 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1184,7 +1184,7 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1193,19 +1193,19 @@
         <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1289,13 +1289,13 @@
         <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1310,10 +1310,10 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE6" t="n">
         <v>13.5</v>
@@ -1325,7 +1325,7 @@
         <v>500</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI6" t="n">
         <v>15.5</v>
@@ -1337,10 +1337,10 @@
         <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1381,40 +1381,40 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.4</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="N7" t="n">
         <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>1.39</v>
@@ -1429,55 +1429,55 @@
         <v>1.98</v>
       </c>
       <c r="W7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
         <v>11</v>
       </c>
-      <c r="X7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11.75</v>
-      </c>
       <c r="Z7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
@@ -1518,31 +1518,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
         <v>3.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="N8" t="n">
         <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P8" t="n">
         <v>1.78</v>
@@ -1554,19 +1554,19 @@
         <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X8" t="n">
         <v>8.5</v>
@@ -1575,46 +1575,46 @@
         <v>7.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
         <v>300</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H9" t="n">
         <v>6.7</v>
       </c>
       <c r="I9" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1698,13 +1698,13 @@
         <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA9" t="n">
         <v>8.75</v>
@@ -1713,7 +1713,7 @@
         <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
         <v>14.5</v>
@@ -1722,28 +1722,28 @@
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>50</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>45</v>
       </c>
       <c r="AK9" t="n">
         <v>600</v>
       </c>
       <c r="AL9" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -2016,10 +2016,10 @@
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2058,13 +2058,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
@@ -2109,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
@@ -2118,7 +2118,7 @@
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
@@ -2148,10 +2148,10 @@
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>23</v>
@@ -2221,22 +2221,22 @@
         <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2281,7 +2281,7 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
@@ -2302,10 +2302,10 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -2353,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -2374,10 +2374,10 @@
         <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -2413,7 +2413,7 @@
         <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
@@ -2425,7 +2425,7 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>23</v>
@@ -2451,10 +2451,10 @@
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="15">
@@ -2851,13 +2851,13 @@
         <v>8.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.15</v>
       </c>
       <c r="L18" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M18" t="n">
         <v>1.34</v>
@@ -2890,7 +2890,7 @@
         <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X18" t="n">
         <v>5.2</v>
@@ -3120,22 +3120,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.85</v>
       </c>
       <c r="I20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J20" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="M20" t="n">
         <v>1.4</v>
@@ -3162,10 +3162,10 @@
         <v>2.27</v>
       </c>
       <c r="U20" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W20" t="n">
         <v>13.5</v>
@@ -3174,7 +3174,7 @@
         <v>45</v>
       </c>
       <c r="Y20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z20" t="n">
         <v>200</v>
@@ -3189,7 +3189,7 @@
         <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>30</v>
@@ -3201,10 +3201,10 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AI20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -701,7 +701,7 @@
         <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -710,22 +710,22 @@
         <v>2.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
         <v>1.39</v>
@@ -734,10 +734,10 @@
         <v>2.45</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF2" t="n">
         <v>60</v>
@@ -773,19 +773,19 @@
         <v>400</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AJ2" t="n">
         <v>7</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AL2" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM2" t="n">
         <v>22</v>
@@ -847,10 +847,10 @@
         <v>3.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
         <v>1.88</v>
@@ -859,10 +859,10 @@
         <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
         <v>1.42</v>
@@ -871,10 +871,10 @@
         <v>2.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W3" t="n">
         <v>6.7</v>
@@ -984,10 +984,10 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O4" t="n">
         <v>1.98</v>
@@ -996,10 +996,10 @@
         <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1008,10 +1008,10 @@
         <v>2.35</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
         <v>6.6</v>
@@ -1103,40 +1103,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="N5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1151,10 +1151,10 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
@@ -1193,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1244,103 +1244,103 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.32</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.27</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T6" t="n">
         <v>2.55</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="X6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AI6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="M7" t="n">
         <v>1.26</v>
@@ -1429,19 +1429,19 @@
         <v>1.98</v>
       </c>
       <c r="W7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z7" t="n">
         <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
@@ -1456,25 +1456,25 @@
         <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="n">
         <v>400</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
         <v>26</v>
@@ -1518,22 +1518,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M8" t="n">
         <v>1.28</v>
@@ -1566,16 +1566,16 @@
         <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1593,22 +1593,22 @@
         <v>11.75</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG8" t="n">
         <v>300</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
         <v>22</v>
@@ -1689,10 +1689,10 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -1941,16 +1941,16 @@
         <v>4.33</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2058,13 +2058,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
@@ -2073,7 +2073,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.2</v>
@@ -2136,13 +2136,13 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2154,7 +2154,7 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
         <v>1.01</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
@@ -2221,22 +2221,22 @@
         <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2254,13 +2254,13 @@
         <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
@@ -2275,13 +2275,13 @@
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
@@ -2302,10 +2302,10 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2344,22 +2344,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.44</v>
@@ -2368,10 +2368,10 @@
         <v>2.63</v>
       </c>
       <c r="O14" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
         <v>4.5</v>
@@ -2380,43 +2380,43 @@
         <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
@@ -2428,33 +2428,33 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
         <v>51</v>
       </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
       <c r="AM14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="15">
@@ -2560,22 +2560,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.25</v>
@@ -2584,10 +2584,10 @@
         <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q16" t="n">
         <v>3.25</v>
@@ -2596,10 +2596,10 @@
         <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>1.8</v>
@@ -2611,7 +2611,7 @@
         <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -2638,16 +2638,16 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
@@ -2800,10 +2800,10 @@
         <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2842,55 +2842,55 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H18" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="K18" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L18" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="N18" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P18" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T18" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X18" t="n">
         <v>5.2</v>
@@ -2899,22 +2899,22 @@
         <v>9.25</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB18" t="n">
         <v>45</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD18" t="n">
         <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>200</v>
@@ -2923,16 +2923,16 @@
         <v>101</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
         <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL18" t="n">
         <v>150</v>
@@ -3081,7 +3081,7 @@
         <v>1.11</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3120,103 +3120,103 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="J20" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L20" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="M20" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="O20" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="T20" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AA20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF20" t="n">
         <v>120</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>250</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>4.75</v>
+        <v>5.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
@@ -3257,88 +3257,88 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>4.55</v>
       </c>
       <c r="I21" t="n">
         <v>9.5</v>
       </c>
       <c r="J21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.83</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.93</v>
-      </c>
       <c r="P21" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T21" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="U21" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="X21" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y21" t="n">
         <v>9.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="n">
         <v>800</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
@@ -3347,13 +3347,13 @@
         <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL21" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -692,103 +692,103 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="M2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T2" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
         <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
         <v>400</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -847,10 +847,10 @@
         <v>3.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
         <v>1.88</v>
@@ -859,22 +859,22 @@
         <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
         <v>6.7</v>
@@ -1047,10 +1047,10 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.25</v>
@@ -1059,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
@@ -1106,7 +1106,7 @@
         <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>2.15</v>
@@ -1127,10 +1127,10 @@
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Q5" t="n">
         <v>2.75</v>
@@ -1139,10 +1139,10 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1169,10 +1169,10 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1184,7 +1184,7 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1244,22 +1244,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="J6" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.27</v>
@@ -1292,28 +1292,28 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1325,16 +1325,16 @@
         <v>400</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL6" t="n">
         <v>25</v>
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="M7" t="n">
         <v>1.26</v>
@@ -1405,10 +1405,10 @@
         <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q7" t="n">
         <v>2.8</v>
@@ -1429,19 +1429,19 @@
         <v>1.98</v>
       </c>
       <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10.75</v>
       </c>
-      <c r="X7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11.25</v>
-      </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
@@ -1450,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE7" t="n">
         <v>13.5</v>
@@ -1459,22 +1459,22 @@
         <v>60</v>
       </c>
       <c r="AG7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>26</v>
@@ -1536,10 +1536,10 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.82</v>
@@ -1548,10 +1548,10 @@
         <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
         <v>1.37</v>
@@ -1560,10 +1560,10 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W8" t="n">
         <v>6.4</v>
@@ -1917,22 +1917,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.2</v>
@@ -1965,10 +1965,10 @@
         <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -1983,13 +1983,13 @@
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2001,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
         <v>9.5</v>
@@ -2021,8 +2021,12 @@
       <c r="AO11" t="n">
         <v>10</v>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.78</v>
+      </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
     </row>
@@ -2203,22 +2207,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.29</v>
@@ -2227,10 +2231,10 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
         <v>3.25</v>
@@ -2254,22 +2258,22 @@
         <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2290,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2344,16 +2348,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -2374,10 +2378,10 @@
         <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="n">
         <v>1.53</v>
@@ -2398,7 +2402,7 @@
         <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
         <v>12</v>
@@ -2410,7 +2414,7 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
@@ -2428,10 +2432,10 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>67</v>
@@ -2440,7 +2444,7 @@
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
         <v>1.1</v>
@@ -2451,10 +2455,10 @@
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="15">
@@ -2566,7 +2570,7 @@
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
         <v>2.4</v>
@@ -2575,7 +2579,7 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.25</v>
@@ -2611,7 +2615,7 @@
         <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -2641,13 +2645,13 @@
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
@@ -2842,64 +2846,64 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.18</v>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="N18" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="O18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
         <v>1.42</v>
       </c>
       <c r="T18" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U18" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
         <v>1.45</v>
       </c>
       <c r="W18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y18" t="n">
         <v>9.25</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA18" t="n">
         <v>13.5</v>
@@ -2908,13 +2912,13 @@
         <v>45</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD18" t="n">
         <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
         <v>200</v>
@@ -2923,16 +2927,16 @@
         <v>101</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK18" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL18" t="n">
         <v>150</v>
@@ -2979,106 +2983,106 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I19" t="n">
-        <v>2.45</v>
+        <v>2.67</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="L19" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="M19" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="N19" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="O19" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="P19" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="S19" t="n">
         <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB19" t="n">
         <v>50</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AD19" t="n">
         <v>5.7</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG19" t="n">
         <v>800</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AO19" t="n">
         <v>5.8</v>
@@ -3132,7 +3136,7 @@
         <v>6.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L20" t="n">
         <v>2.02</v>
@@ -3162,10 +3166,10 @@
         <v>2.47</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="V20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
         <v>15</v>
@@ -3213,7 +3217,7 @@
         <v>9.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
         <v>35</v>
@@ -3257,103 +3261,103 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H21" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="I21" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="J21" t="n">
         <v>1.8</v>
       </c>
       <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.25</v>
       </c>
-      <c r="L21" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X21" t="n">
         <v>5.5</v>
       </c>
-      <c r="X21" t="n">
-        <v>5.3</v>
-      </c>
       <c r="Y21" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
         <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
         <v>9.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG21" t="n">
         <v>800</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL21" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -692,103 +692,103 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J2" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L2" t="n">
         <v>2.47</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="N2" t="n">
         <v>2.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="T2" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AD2" t="n">
         <v>5.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
@@ -829,103 +829,103 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.22</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="U3" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.72</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.89</v>
-      </c>
       <c r="W3" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -1008,10 +1008,10 @@
         <v>2.35</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W4" t="n">
         <v>6.6</v>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
         <v>1.22</v>
@@ -1154,16 +1154,16 @@
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1175,7 +1175,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1193,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1205,7 +1205,7 @@
         <v>1.04</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1244,22 +1244,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="K6" t="n">
         <v>2.07</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="M6" t="n">
         <v>1.27</v>
@@ -1280,7 +1280,7 @@
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
         <v>2.55</v>
@@ -1292,28 +1292,28 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1325,19 +1325,19 @@
         <v>400</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>32</v>
@@ -1381,25 +1381,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
         <v>2.72</v>
       </c>
       <c r="M7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="N7" t="n">
         <v>3.2</v>
@@ -1411,10 +1411,10 @@
         <v>1.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
         <v>1.39</v>
@@ -1423,25 +1423,25 @@
         <v>2.55</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
@@ -1450,34 +1450,34 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH7" t="n">
         <v>8.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
@@ -1518,40 +1518,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="n">
         <v>1.29</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
         <v>3.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
         <v>1.37</v>
@@ -1560,61 +1560,61 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="W8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X8" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
@@ -1655,95 +1655,95 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="H9" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH9" t="n">
         <v>80</v>
       </c>
-      <c r="AG9" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>55</v>
-      </c>
       <c r="AI9" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL9" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1784,99 +1784,103 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="M10" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="O10" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="P10" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+        <v>1.27</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.47</v>
+      </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W10" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI10" t="n">
         <v>10.75</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.75</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
@@ -1941,16 +1945,16 @@
         <v>4.33</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -1959,13 +1963,13 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -1980,22 +1984,22 @@
         <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
         <v>10</v>
@@ -2016,10 +2020,10 @@
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>2.03</v>
@@ -2062,13 +2066,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
@@ -2077,7 +2081,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.2</v>
@@ -2140,13 +2144,13 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2158,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
         <v>1.01</v>
@@ -2306,10 +2310,10 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2564,34 +2568,34 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P16" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
         <v>3.25</v>
@@ -2606,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
         <v>7.5</v>
@@ -2642,7 +2646,7 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
         <v>12</v>
@@ -2657,10 +2661,10 @@
         <v>41</v>
       </c>
       <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
         <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
       </c>
       <c r="AN16" t="n">
         <v>1.05</v>
@@ -2705,40 +2709,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J17" t="n">
         <v>4.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -2747,19 +2751,19 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
         <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
         <v>41</v>
@@ -2771,25 +2775,25 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -2804,10 +2808,10 @@
         <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -3124,46 +3128,46 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="J20" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L20" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="M20" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="N20" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="O20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="U20" t="n">
         <v>2.07</v>
@@ -3172,31 +3176,31 @@
         <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
         <v>150</v>
       </c>
       <c r="AA20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="n">
         <v>90</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>120</v>
@@ -3205,19 +3209,19 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM20" t="n">
         <v>35</v>
@@ -3261,64 +3265,64 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="H21" t="n">
-        <v>4.65</v>
+        <v>4.35</v>
       </c>
       <c r="I21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y21" t="n">
         <v>8.75</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
       <c r="Z21" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA21" t="n">
         <v>12.5</v>
@@ -3327,28 +3331,28 @@
         <v>37</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG21" t="n">
         <v>800</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK21" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -829,106 +829,110 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.87</v>
       </c>
       <c r="H3" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O3" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="P3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.52</v>
       </c>
-      <c r="Q3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.47</v>
-      </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="Y3" t="n">
-        <v>7.7</v>
-      </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="n">
         <v>500</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM3" t="n">
         <v>32</v>
       </c>
-      <c r="AL3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5.6</v>
+      </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
@@ -966,40 +970,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="N4" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
         <v>1.42</v>
@@ -1008,28 +1012,28 @@
         <v>2.35</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1038,7 +1042,7 @@
         <v>5.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1047,22 +1051,22 @@
         <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AK4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL4" t="n">
         <v>22</v>
       </c>
-      <c r="AL4" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
@@ -1518,22 +1522,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="K8" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.05</v>
+        <v>4.55</v>
       </c>
       <c r="M8" t="n">
         <v>1.29</v>
@@ -1542,79 +1546,79 @@
         <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
         <v>3.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W8" t="n">
         <v>6.2</v>
       </c>
       <c r="X8" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
         <v>11.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
         <v>50</v>
       </c>
-      <c r="AG8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>40</v>
-      </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
@@ -1655,22 +1659,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1695,55 +1699,55 @@
         <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
         <v>10.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA9" t="n">
         <v>9.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
         <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG9" t="n">
         <v>600</v>
       </c>
       <c r="AH9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="n">
         <v>500</v>
       </c>
       <c r="AL9" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1921,16 +1925,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
@@ -1945,10 +1949,10 @@
         <v>4.33</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
         <v>2.63</v>
@@ -1963,10 +1967,10 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -1984,7 +1988,7 @@
         <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
@@ -1993,13 +1997,13 @@
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
         <v>10</v>
@@ -2066,13 +2070,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
@@ -2081,7 +2085,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.2</v>
@@ -2144,13 +2148,13 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2162,7 +2166,7 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
         <v>1.01</v>
@@ -2235,10 +2239,10 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
         <v>3.25</v>
@@ -2310,10 +2314,10 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2727,22 +2731,22 @@
         <v>2.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3265,22 +3269,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="H21" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="K21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="M21" t="n">
         <v>1.28</v>
@@ -3295,7 +3299,7 @@
         <v>1.78</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R21" t="n">
         <v>1.3</v>
@@ -3307,37 +3311,37 @@
         <v>2.57</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X21" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
         <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC21" t="n">
         <v>9.75</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
         <v>150</v>
@@ -3346,22 +3350,22 @@
         <v>800</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -1788,40 +1788,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="M10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="N10" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
         <v>1.42</v>
@@ -1830,61 +1830,61 @@
         <v>2.47</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
         <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE10" t="n">
         <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AI10" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
@@ -1949,10 +1949,10 @@
         <v>4.33</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q11" t="n">
         <v>2.63</v>
@@ -2024,10 +2024,10 @@
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>2.03</v>
@@ -2070,22 +2070,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.2</v>
@@ -2124,16 +2124,16 @@
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>29</v>
@@ -2215,61 +2215,61 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
         <v>3.5</v>
       </c>
       <c r="M13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.29</v>
       </c>
-      <c r="N13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
@@ -2278,25 +2278,25 @@
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2308,16 +2308,16 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2713,40 +2713,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -2767,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
         <v>41</v>
@@ -2797,16 +2797,16 @@
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -1791,25 +1791,25 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
         <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
       </c>
       <c r="N10" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O10" t="n">
         <v>1.98</v>
@@ -1821,7 +1821,7 @@
         <v>3.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
         <v>1.42</v>
@@ -1836,10 +1836,10 @@
         <v>1.87</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>10.75</v>
@@ -1848,13 +1848,13 @@
         <v>37</v>
       </c>
       <c r="AA10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.1</v>
@@ -1869,19 +1869,19 @@
         <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>30</v>
@@ -1949,16 +1949,16 @@
         <v>4.33</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2076,13 +2076,13 @@
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
         <v>3.25</v>
@@ -2094,7 +2094,7 @@
         <v>4.33</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P12" t="n">
         <v>2.25</v>
@@ -2106,16 +2106,16 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
         <v>11</v>
@@ -2133,7 +2133,7 @@
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>29</v>
@@ -2169,10 +2169,10 @@
         <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
         <v>2.03</v>
@@ -2215,22 +2215,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.33</v>
@@ -2239,16 +2239,16 @@
         <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2257,28 +2257,28 @@
         <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>19</v>
-      </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2296,28 +2296,28 @@
         <v>700</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -1797,19 +1797,19 @@
         <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="M10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="N10" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.98</v>
@@ -1818,37 +1818,37 @@
         <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="U10" t="n">
         <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="n">
         <v>37</v>
@@ -1857,10 +1857,10 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
         <v>70</v>
@@ -1869,22 +1869,22 @@
         <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-06.xlsx
@@ -1812,7 +1812,7 @@
         <v>2.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>1.65</v>
